--- a/data/trans_orig/IP12BS04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP12BS04-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E8B8183-7DBE-4D6F-8195-BB8BA61A9C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14D475EA-EF0C-49F4-A76C-9228F83D4D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0236B901-80DA-4D87-8433-2E4E05FF913F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3146A29-CEA9-42BC-8222-173B4B705B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -495,7 +495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C0CE48-8529-4E82-B854-46E1364D5D96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F8A218-759B-4AE5-8846-C25034AB2F07}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
